--- a/document/Baidu API Design.xlsx
+++ b/document/Baidu API Design.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>应用ID</t>
   </si>
@@ -59,30 +59,15 @@
     <t>int</t>
   </si>
   <si>
-    <t>stand_id</t>
-  </si>
-  <si>
     <t>摊位id</t>
   </si>
   <si>
     <t>create_date</t>
   </si>
   <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>week_workingday</t>
-  </si>
-  <si>
     <t>每周工作日</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>sample 1,2,3,5。 默认为1,2,3,4,5,6,7</t>
   </si>
   <si>
@@ -92,22 +77,118 @@
     <t>每天的工作时间</t>
   </si>
   <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
     <t>0:00-10:30 默认为null</t>
   </si>
   <si>
-    <t>(extend fields)</t>
-  </si>
-  <si>
     <t>stand_image_tip</t>
   </si>
   <si>
-    <t>摊位显示图片</t>
-  </si>
-  <si>
-    <t>image url</t>
+    <t>geotable_id</t>
+  </si>
+  <si>
+    <t>will be Stand_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>摊位名称</t>
+  </si>
+  <si>
+    <t>String(256)</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>String(128)</t>
+  </si>
+  <si>
+    <t>由地点生成</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>检索用tags</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>隐藏 检索用</t>
+  </si>
+  <si>
+    <t>week_working_day</t>
+  </si>
+  <si>
+    <t>摊位图片</t>
+  </si>
+  <si>
+    <t>地点创建时间</t>
+  </si>
+  <si>
+    <t>摊位描述</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>create_user</t>
+  </si>
+  <si>
+    <t>创建者名称</t>
+  </si>
+  <si>
+    <t>creater_id</t>
+  </si>
+  <si>
+    <t>创建者id</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>得分</t>
+  </si>
+  <si>
+    <t>isactive</t>
+  </si>
+  <si>
+    <t>是否激活</t>
+  </si>
+  <si>
+    <t>realtime_location</t>
+  </si>
+  <si>
+    <t>实时位置开启</t>
+  </si>
+  <si>
+    <t>第一张将作为摊位图片</t>
   </si>
 </sst>
 </file>
@@ -527,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +620,7 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,13 +645,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,13 +662,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,16 +676,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,16 +693,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,18 +707,157 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
